--- a/src/test/resources/userExcel.xlsx
+++ b/src/test/resources/userExcel.xlsx
@@ -5,26 +5,137 @@
   <fileSharing readOnlyRecommended="0" userName="Elizabeth"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView activeTab="4" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="userdata" sheetId="1" r:id="rId3"/>
+    <sheet name="userdata" sheetId="1" r:id="rId4"/>
+    <sheet name="flight" sheetId="2" r:id="rId5"/>
+    <sheet name="travellersDetails" sheetId="3" r:id="rId6"/>
+    <sheet name="hotel" sheetId="4" r:id="rId7"/>
+    <sheet name="guestsdetails" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1664574617" val="1050" rev="124" rev64="64" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1664574617" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1664574617"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1664574617"/>
+      <pm:revision xmlns:pm="smNativeData" day="1664859141" val="1050" rev="124" rev64="64" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1664859141" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1664859141" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1664859141"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>to2</t>
+  </si>
+  <si>
+    <t>YYZ</t>
+  </si>
+  <si>
+    <t>NRT</t>
+  </si>
+  <si>
+    <t>ICN</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>daybirth</t>
+  </si>
+  <si>
+    <t>monthbirth</t>
+  </si>
+  <si>
+    <t>yearbirth</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>passportnumber</t>
+  </si>
+  <si>
+    <t>dayexpiry</t>
+  </si>
+  <si>
+    <t>monthexpiry</t>
+  </si>
+  <si>
+    <t>yearexpiry</t>
+  </si>
+  <si>
+    <t>numbercode</t>
+  </si>
+  <si>
+    <t>phonenumber</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Liam</t>
+  </si>
+  <si>
+    <t>Baker</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>LB000375</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>testing.users.email@gmail.com</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>residence</t>
+  </si>
+  <si>
+    <t>London,United Kingdom</t>
+  </si>
+  <si>
+    <t>pannumber</t>
+  </si>
+  <si>
+    <t>passportnationality</t>
+  </si>
+  <si>
+    <t>ABCPL1234H</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
@@ -33,8 +144,9 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
+    <numFmt numFmtId="49" formatCode="@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -42,7 +154,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1664574617" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1664859141" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -50,16 +162,69 @@
         </ext>
       </extLst>
     </font>
+    <font>
+      <name val="JetBrains Mono"/>
+      <color rgb="FFFFD866"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1664859141" fgClr="FFD866" bgClr="FCFCFA" ulstyle="none">
+            <pm:latin face="JetBrains Mono" sz="200" lang="default"/>
+            <pm:cs face="Arial" sz="200" lang="default"/>
+            <pm:ea face="Arial" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="JetBrains Mono"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1664859141" bgClr="FCFCFA" ulstyle="none">
+            <pm:latin face="JetBrains Mono" sz="200" lang="default"/>
+            <pm:cs face="Arial" sz="200" lang="default"/>
+            <pm:ea face="Arial" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="JetBrains Mono"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1664859141" bgClr="FCFCFA" ulstyle="none" kern="1">
+            <pm:latin face="JetBrains Mono" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1664859141" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -75,7 +240,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1664574617"/>
+          <pm:border xmlns:pm="smNativeData" id="1664859141"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1664859141"/>
         </ext>
       </extLst>
     </border>
@@ -83,8 +267,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -92,9 +281,14 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1664574617" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1664859141" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
+      <pm:colors xmlns:pm="smNativeData" id="1664859141" count="3">
+        <pm:color name="Color 26" rgb="FFD866"/>
+        <pm:color name="Color 24" rgb="FCFCFA"/>
+        <pm:color name="Color 25" rgb="2D2A2E"/>
+      </pm:colors>
     </ext>
   </extLst>
 </styleSheet>
@@ -358,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+    <sheetView view="normal" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -367,7 +561,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1664574617" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1664859141" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -376,16 +570,400 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1664574617" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1664574617" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1664574617" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1664574617" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1664859141" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1664859141" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1664859141" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1664859141" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1664574617" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1664859141" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1664859141" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="1.000000" right="1.000000" top="1.000000" bottom="1.000000" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1664859141" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1664859141" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1664859141" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1664859141" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1664859141" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView view="normal" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <cols>
+    <col min="13" max="13" width="17.297297" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1975</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="n">
+        <v>12</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2033</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>2267055077</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1664859141" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="1.000000" right="1.000000" top="1.000000" bottom="1.000000" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1664859141" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1664859141" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1664859141" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1664859141" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1664859141" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="D3" sqref="A2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="n">
+        <v>165167</v>
+      </c>
+      <c r="C2" t="n">
+        <v>165167</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1664859141" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="1.000000" right="1.000000" top="1.000000" bottom="1.000000" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1664859141" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1664859141" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1664859141" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1664859141" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1664859141" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <cols>
+    <col min="12" max="12" width="15.405405" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="n">
+        <v>12</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2033</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>2267055077</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1664859141" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="1.000000" right="1.000000" top="1.000000" bottom="1.000000" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1664859141" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1664859141" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1664859141" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1664859141" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1664859141" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
